--- a/downloaded_files/ARCS206_Tutorial-35195.xlsx
+++ b/downloaded_files/ARCS206_Tutorial-35195.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -208,15 +208,6 @@
   </x:si>
   <x:si>
     <x:t>Abdallah Wael Abdel Razek El Said Mwafy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ليلى محمد محمود محمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Layla Mohamed Mahmoud Mohamed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1240151</x:t>
@@ -395,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1424,7 +1415,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6691388889</x:v>
+        <x:v>45907.6766508102</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1456,7 +1447,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6766508102</x:v>
+        <x:v>45907.4167320602</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1488,7 +1479,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4167320602</x:v>
+        <x:v>45907.6650974537</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,7 +1511,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650974537</x:v>
+        <x:v>45907.6666286227</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1552,7 +1543,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6666286227</x:v>
+        <x:v>45907.6671581019</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,7 +1575,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6671581019</x:v>
+        <x:v>45907.6652211806</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,7 +1607,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6652211806</x:v>
+        <x:v>45907.450612419</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1633,38 +1624,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45907.450612419</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
